--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A34B9-EFC2-40BD-B2C4-399397F706C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87137EE-D3B1-4C3B-AC32-23F51D973228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Interview Date</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t xml:space="preserve">Required Azure expert for the opration </t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Wrongly mentioned kubernates and not good knowledge of azure</t>
+  </si>
+  <si>
+    <t>12:30 to 13:00</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bechtel-Gurgaon</t>
   </si>
 </sst>
 </file>
@@ -137,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33F729"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +271,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,6 +285,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33F729"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00CCFF"/>
     </mruColors>
@@ -570,7 +601,7 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +614,7 @@
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -779,15 +810,33 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="15">
+        <v>45881</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45887</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumantra.upadhyay\Videos\DevOps_insiders\Self_notes_Git\Notes_Devops_self\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87137EE-D3B1-4C3B-AC32-23F51D973228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65566762-41C1-4CC2-9D55-6557828BB698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Interview Date</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Bechtel-Gurgaon</t>
+  </si>
+  <si>
+    <t>Amantya Technologies</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33F729"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FFB25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,16 +274,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,6 +297,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFB7DA1"/>
+      <color rgb="FF2FFB25"/>
       <color rgb="FF33F729"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00CCFF"/>
@@ -601,7 +615,7 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,19 +633,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -810,19 +824,19 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>45881</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5">
@@ -839,11 +853,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="13">
+        <v>45890</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65566762-41C1-4CC2-9D55-6557828BB698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973BA48-F297-4131-893A-BB778BCF91B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Interview Date</t>
   </si>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">Required Azure expert for the opration </t>
   </si>
   <si>
-    <t>Clear</t>
-  </si>
-  <si>
     <t>Wrongly mentioned kubernates and not good knowledge of azure</t>
   </si>
   <si>
@@ -129,13 +126,46 @@
     <t>Selected</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Bechtel-Gurgaon</t>
   </si>
   <si>
     <t>Amantya Technologies</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>2nd round Result</t>
+  </si>
+  <si>
+    <t>Reason for the rejection in 3rd round</t>
+  </si>
+  <si>
+    <t>They were offering only 30% they were budget constrain</t>
+  </si>
+  <si>
+    <t>3RD ROUND (Client)</t>
+  </si>
+  <si>
+    <t>4TH ROUND (Managerial)</t>
+  </si>
+  <si>
+    <t>3rd round Result</t>
+  </si>
+  <si>
+    <t>14:00 To 14:30</t>
+  </si>
+  <si>
+    <t>18:00 To 18:30</t>
+  </si>
+  <si>
+    <t>Reason for the rejection in 4th round</t>
+  </si>
+  <si>
+    <t>17:00 To 17:30</t>
+  </si>
+  <si>
+    <t>Publicis  Devops + Dev experience (Python/ Go Lang etc)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,27 +645,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD5A24-939F-4BE2-A514-E645ADBCD2DF}">
-  <dimension ref="A1:I354"/>
+  <dimension ref="A1:Q354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -646,8 +687,20 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +728,32 @@
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45820</v>
       </c>
@@ -696,8 +773,16 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45834</v>
       </c>
@@ -717,8 +802,16 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45841</v>
       </c>
@@ -738,8 +831,16 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45842</v>
       </c>
@@ -759,8 +860,16 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45847</v>
       </c>
@@ -780,8 +889,16 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45850</v>
       </c>
@@ -801,8 +918,16 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45853</v>
       </c>
@@ -822,22 +947,30 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>45881</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5">
         <v>45887</v>
@@ -846,13 +979,21 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>45890</v>
       </c>
@@ -860,31 +1001,77 @@
         <v>21</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45891</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="18">
+        <v>45891</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="18">
+        <v>45891</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>45901</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -894,8 +1081,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -905,8 +1100,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -916,8 +1119,16 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -927,6 +1138,14 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1943,9 +2162,11 @@
       <c r="A354" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973BA48-F297-4131-893A-BB778BCF91B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C6DB82-8714-4906-9BA4-8B5791EB88D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Interview Date</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Publicis  Devops + Dev experience (Python/ Go Lang etc)</t>
+  </si>
+  <si>
+    <t>02:00 To 02:30</t>
+  </si>
+  <si>
+    <t>HCL Tech || TP1 Technical Interview – DEVOPS</t>
+  </si>
+  <si>
+    <t>Application and docker pipeline required</t>
+  </si>
+  <si>
+    <t>Stewart Title</t>
+  </si>
+  <si>
+    <t>01:00 To 02:00</t>
+  </si>
+  <si>
+    <t>Basics are not clear (terraform, logic realred)</t>
   </si>
 </sst>
 </file>
@@ -226,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -262,11 +280,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,13 +344,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +685,7 @@
   <dimension ref="A1:Q354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,31 +711,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1021,7 +1058,7 @@
       <c r="I11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <v>45891</v>
       </c>
       <c r="K11" s="14" t="s">
@@ -1033,7 +1070,7 @@
       <c r="M11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <v>45891</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -1047,17 +1084,19 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>45901</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1072,11 +1111,21 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="5">
+        <v>45929</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1091,11 +1140,21 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="20">
+        <v>45931</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1111,7 +1170,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1130,7 +1189,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C6DB82-8714-4906-9BA4-8B5791EB88D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5F3D7-0AD4-4894-85CE-60C6F54DD5DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>01:00 To 02:00</t>
   </si>
   <si>
-    <t>Basics are not clear (terraform, logic realred)</t>
+    <t>Basics are not clear (terraform, logic relared)</t>
   </si>
 </sst>
 </file>
@@ -347,16 +347,16 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,8 @@
   <dimension ref="A1:Q354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,31 +712,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1140,7 +1141,7 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>45931</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1170,7 +1171,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Notes_Devops_self\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5F3D7-0AD4-4894-85CE-60C6F54DD5DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A89BB-7239-4296-89F6-AE920CA8B881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Interview Date</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Basics are not clear (terraform, logic relared)</t>
+  </si>
+  <si>
+    <t>20:00 To 20:30</t>
+  </si>
+  <si>
+    <t>AHEAD</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,6 +363,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,9 +1179,15 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10">
+        <v>45945</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A89BB-7239-4296-89F6-AE920CA8B881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6650BA-E15C-47CA-A593-69F7A0782415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,17 +1179,17 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="5">
         <v>45945</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6650BA-E15C-47CA-A593-69F7A0782415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD611D-0B16-4E95-A7B4-E4AE561F9835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Interview Date</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>AHEAD</t>
+  </si>
+  <si>
+    <t>Senario based question not answered properly</t>
+  </si>
+  <si>
+    <t>Scripting language reuired</t>
   </si>
 </sst>
 </file>
@@ -359,13 +365,13 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,31 +727,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1106,7 +1112,9 @@
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1182,14 +1190,18 @@
       <c r="A15" s="5">
         <v>45945</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD611D-0B16-4E95-A7B4-E4AE561F9835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58AA3F-C513-4B87-BE10-B7A1373977F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Interview Date</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Scripting language reuired</t>
+  </si>
+  <si>
+    <t>11:30 To 12:30</t>
+  </si>
+  <si>
+    <t>Bounteous x Accolite</t>
+  </si>
+  <si>
+    <t>They were looking for who is good in Gitlab</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,9 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,9 +363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,12 +704,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -727,31 +730,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1010,19 +1013,19 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>45881</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="5">
@@ -1047,52 +1050,52 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>45890</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>45891</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>45891</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>45891</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -1158,7 +1161,7 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>45931</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1190,7 +1193,7 @@
       <c r="A15" s="5">
         <v>45945</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1216,11 +1219,21 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="5">
+        <v>45972</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1235,1018 +1248,1018 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="10"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="10"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="10"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="10"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="10"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="10"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="10"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="10"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="10"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="10"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="10"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="10"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="10"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="10"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="10"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="10"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="10"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="10"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="10"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="10"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="10"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+      <c r="A124" s="10"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+      <c r="A125" s="10"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
+      <c r="A134" s="10"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="10"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="10"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+      <c r="A139" s="10"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="10"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="10"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+      <c r="A142" s="10"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+      <c r="A143" s="10"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="10"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+      <c r="A145" s="10"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
+      <c r="A146" s="10"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+      <c r="A147" s="10"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="10"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="10"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="10"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
+      <c r="A154" s="10"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
+      <c r="A155" s="10"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+      <c r="A156" s="10"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
+      <c r="A157" s="10"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+      <c r="A158" s="10"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
+      <c r="A159" s="10"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+      <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+      <c r="A162" s="10"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
+      <c r="A163" s="10"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
+      <c r="A164" s="10"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
+      <c r="A166" s="10"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="10"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="A168" s="10"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+      <c r="A169" s="10"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+      <c r="A170" s="10"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="10"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="10"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
+      <c r="A173" s="10"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+      <c r="A174" s="10"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="10"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="10"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="10"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="10"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="10"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="10"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="10"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
+      <c r="A185" s="10"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
+      <c r="A186" s="10"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+      <c r="A187" s="10"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
+      <c r="A188" s="10"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+      <c r="A189" s="10"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
+      <c r="A190" s="10"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
+      <c r="A191" s="10"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+      <c r="A192" s="10"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
+      <c r="A193" s="10"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+      <c r="A194" s="10"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+      <c r="A195" s="10"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+      <c r="A196" s="10"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
+      <c r="A197" s="10"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
+      <c r="A198" s="10"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
+      <c r="A199" s="10"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
+      <c r="A200" s="10"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
+      <c r="A201" s="10"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="10"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="10"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="10"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
+      <c r="A205" s="10"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
+      <c r="A206" s="10"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
+      <c r="A207" s="10"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
+      <c r="A208" s="10"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
+      <c r="A209" s="10"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
+      <c r="A210" s="10"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
+      <c r="A211" s="10"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
+      <c r="A212" s="10"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
+      <c r="A213" s="10"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
+      <c r="A214" s="10"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
+      <c r="A215" s="10"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
+      <c r="A216" s="10"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
+      <c r="A217" s="10"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
+      <c r="A218" s="10"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
+      <c r="A219" s="10"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
+      <c r="A220" s="10"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
+      <c r="A221" s="10"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="10"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
+      <c r="A226" s="10"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
+      <c r="A227" s="10"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
+      <c r="A228" s="10"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
+      <c r="A229" s="10"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
+      <c r="A230" s="10"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
+      <c r="A231" s="10"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
+      <c r="A232" s="10"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+      <c r="A233" s="10"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
+      <c r="A234" s="10"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
+      <c r="A235" s="10"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
+      <c r="A236" s="10"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
+      <c r="A237" s="10"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
+      <c r="A238" s="10"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
+      <c r="A239" s="10"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
+      <c r="A240" s="10"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
+      <c r="A241" s="10"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
+      <c r="A244" s="10"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
+      <c r="A245" s="10"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
+      <c r="A246" s="10"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
+      <c r="A247" s="10"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
+      <c r="A251" s="10"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
+      <c r="A255" s="10"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
+      <c r="A256" s="10"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
+      <c r="A257" s="10"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
+      <c r="A259" s="10"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+      <c r="A260" s="10"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
+      <c r="A261" s="10"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
+      <c r="A262" s="10"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
+      <c r="A263" s="10"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
+      <c r="A264" s="10"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
+      <c r="A265" s="10"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
+      <c r="A266" s="10"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
+      <c r="A267" s="10"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
+      <c r="A268" s="10"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
+      <c r="A269" s="10"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
+      <c r="A270" s="10"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
+      <c r="A271" s="10"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
+      <c r="A272" s="10"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
+      <c r="A273" s="10"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
+      <c r="A274" s="10"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
+      <c r="A275" s="10"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
+      <c r="A276" s="10"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
+      <c r="A277" s="10"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
+      <c r="A278" s="10"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
+      <c r="A279" s="10"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
+      <c r="A280" s="10"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
+      <c r="A281" s="10"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
+      <c r="A282" s="10"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
+      <c r="A283" s="10"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+      <c r="A284" s="10"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
+      <c r="A285" s="10"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
+      <c r="A286" s="10"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
+      <c r="A287" s="10"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
+      <c r="A288" s="10"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
+      <c r="A289" s="10"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
+      <c r="A290" s="10"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
+      <c r="A291" s="10"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
+      <c r="A292" s="10"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
+      <c r="A293" s="10"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
+      <c r="A294" s="10"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
+      <c r="A295" s="10"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
+      <c r="A296" s="10"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
+      <c r="A297" s="10"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
+      <c r="A298" s="10"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
+      <c r="A299" s="10"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
+      <c r="A300" s="10"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
+      <c r="A301" s="10"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
+      <c r="A302" s="10"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
+      <c r="A303" s="10"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
+      <c r="A304" s="10"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
+      <c r="A305" s="10"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
+      <c r="A306" s="10"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
+      <c r="A307" s="10"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
+      <c r="A308" s="10"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
+      <c r="A309" s="10"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
+      <c r="A310" s="10"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
+      <c r="A311" s="10"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
+      <c r="A312" s="10"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
+      <c r="A313" s="10"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
+      <c r="A314" s="10"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
+      <c r="A315" s="10"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
+      <c r="A316" s="10"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
+      <c r="A317" s="10"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
+      <c r="A318" s="10"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
+      <c r="A319" s="10"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
+      <c r="A320" s="10"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
+      <c r="A321" s="10"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
+      <c r="A322" s="10"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="11"/>
+      <c r="A323" s="10"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
+      <c r="A324" s="10"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
+      <c r="A325" s="10"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
+      <c r="A326" s="10"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
+      <c r="A327" s="10"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="11"/>
+      <c r="A328" s="10"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
+      <c r="A329" s="10"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="11"/>
+      <c r="A330" s="10"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="11"/>
+      <c r="A331" s="10"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="11"/>
+      <c r="A332" s="10"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="11"/>
+      <c r="A333" s="10"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="11"/>
+      <c r="A334" s="10"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="11"/>
+      <c r="A335" s="10"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="11"/>
+      <c r="A336" s="10"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="11"/>
+      <c r="A337" s="10"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="11"/>
+      <c r="A338" s="10"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="11"/>
+      <c r="A339" s="10"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
+      <c r="A340" s="10"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="11"/>
+      <c r="A341" s="10"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
+      <c r="A342" s="10"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="11"/>
+      <c r="A343" s="10"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
+      <c r="A344" s="10"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
+      <c r="A345" s="10"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11"/>
+      <c r="A346" s="10"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
+      <c r="A347" s="10"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11"/>
+      <c r="A348" s="10"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11"/>
+      <c r="A349" s="10"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
+      <c r="A350" s="10"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="11"/>
+      <c r="A351" s="10"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="11"/>
+      <c r="A352" s="10"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="11"/>
+      <c r="A353" s="10"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="11"/>
+      <c r="A354" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58AA3F-C513-4B87-BE10-B7A1373977F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB67C8B-B290-4D99-99FE-8F68B37F3791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Interview Date</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>They were looking for who is good in Gitlab</t>
+  </si>
+  <si>
+    <t>Altimetrik</t>
+  </si>
+  <si>
+    <t>12:00 to 13:00</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +381,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,52 +1256,74 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>45982</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB67C8B-B290-4D99-99FE-8F68B37F3791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9D6EC-460D-4D86-86FC-C2FB9716F5C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Interview Date</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>12:00 to 13:00</t>
+  </si>
+  <si>
+    <t>SonarKube, Docker and Kubernates required</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,9 +384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,17 +1257,21 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="5">
         <v>45982</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9D6EC-460D-4D86-86FC-C2FB9716F5C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E195AC-D882-4B07-9E02-9AC01F7C67E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Interview Date</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Reason for the rejection in 3rd round</t>
   </si>
   <si>
-    <t>They were offering only 30% they were budget constrain</t>
-  </si>
-  <si>
     <t>3RD ROUND (Client)</t>
   </si>
   <si>
@@ -210,10 +207,22 @@
     <t>Altimetrik</t>
   </si>
   <si>
-    <t>12:00 to 13:00</t>
-  </si>
-  <si>
     <t>SonarKube, Docker and Kubernates required</t>
+  </si>
+  <si>
+    <t>12:00 To 13:00</t>
+  </si>
+  <si>
+    <t>11:00 To 11:45</t>
+  </si>
+  <si>
+    <t>HCL Tech || TP1 Technical Interview – Azure DEVOPS</t>
+  </si>
+  <si>
+    <t>Kubernates, basic linux, kubernates not cleared</t>
+  </si>
+  <si>
+    <t>Selected but They were offering only 30% they were budget constrain</t>
   </si>
 </sst>
 </file>
@@ -713,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +743,7 @@
     <col min="14" max="14" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -753,13 +762,13 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
@@ -812,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1078,7 +1087,7 @@
         <v>45891</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>35</v>
@@ -1090,7 +1099,7 @@
         <v>45891</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>35</v>
@@ -1102,13 +1111,13 @@
         <v>45891</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1116,16 +1125,16 @@
         <v>45901</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1145,16 +1154,16 @@
         <v>45929</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1174,16 +1183,16 @@
         <v>45931</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1203,16 +1212,16 @@
         <v>45945</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1232,16 +1241,16 @@
         <v>45972</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1264,13 +1273,13 @@
         <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1286,7 +1295,33 @@
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="5">
+        <v>45985</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E195AC-D882-4B07-9E02-9AC01F7C67E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511E780-A61F-40AB-996E-118F5E60EE4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Interview Date</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Selected but They were offering only 30% they were budget constrain</t>
+  </si>
+  <si>
+    <t>14:00 To 15:00</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +398,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +412,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2FFB25"/>
       <color rgb="FFFB7DA1"/>
-      <color rgb="FF2FFB25"/>
       <color rgb="FF33F729"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00CCFF"/>
@@ -721,8 +730,8 @@
   <dimension ref="A1:Q354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,24 +1275,30 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="20">
         <v>45982</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="21">
+        <v>45986</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9D6EC-460D-4D86-86FC-C2FB9716F5C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58C3AF-3862-4D8F-970D-5A77370D421A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Interview Date</t>
   </si>
@@ -207,13 +207,19 @@
     <t>They were looking for who is good in Gitlab</t>
   </si>
   <si>
-    <t>Altimetrik</t>
-  </si>
-  <si>
-    <t>12:00 to 13:00</t>
-  </si>
-  <si>
     <t>SonarKube, Docker and Kubernates required</t>
+  </si>
+  <si>
+    <t>12:00 To 13:00</t>
+  </si>
+  <si>
+    <t>11:00 To 11:45</t>
+  </si>
+  <si>
+    <t>HCL TP1 Scheduled  || Azure Devops</t>
+  </si>
+  <si>
+    <t>Altimetrik || Senior Engineer - DevOps</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2FFB25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +396,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,20 +1275,20 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="21">
         <v>45982</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1286,7 +1304,29 @@
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="20">
+        <v>45985</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>

--- a/others/Interview.xlsx
+++ b/others/Interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58C3AF-3862-4D8F-970D-5A77370D421A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC8436-0BFE-44C7-8F30-0B618C7EFC45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3683792B-0E26-4DE7-B181-CE1413C69818}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>Interview Date</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Altimetrik || Senior Engineer - DevOps</t>
+  </si>
+  <si>
+    <t>1St round interview cleated but second round not shceduled</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2FFB25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,12 +393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1266,7 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="5">
         <v>45982</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1284,16 +1275,18 @@
       <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1304,17 +1297,19 @@
       <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="6">
         <v>45985</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
